--- a/Biomass/Charts/Value Added Change by Activities.xlsx
+++ b/Biomass/Charts/Value Added Change by Activities.xlsx
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>-2.195902546423895</v>
+        <v>214.6014322935589</v>
       </c>
       <c r="J10">
         <v>-0.1806927744428322</v>
